--- a/_data/website-info.xlsx
+++ b/_data/website-info.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="411">
   <si>
     <t>first_name</t>
   </si>
@@ -106,7 +106,7 @@
     <t>Develop new tools for designing robots by pairing emerging fabrication techniques and new materials with analytical and simulation-based methods for understanding the behavior of these complex systems.</t>
   </si>
   <si>
-    <t>Design,Dynamics,Mechatronics</t>
+    <t>Design,Dynamics,Mechatronics,Soft-Robotics</t>
   </si>
   <si>
     <t>IDEAlab</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">Research on human-automation interaction in cognitive tasks, complex systems, safety applications, resilience, cooperation, and trust.  </t>
   </si>
   <si>
-    <t>Human-Robot,Automation,Job-Design,Safety,Sociotechnical-Systems</t>
+    <t>Human-Robot,Teaming</t>
   </si>
   <si>
     <t>ADAPT Lab</t>
@@ -314,9 +314,6 @@
   </si>
   <si>
     <t>Research on teamwork, especially human-AI teaming and human-robot teaming. Unobtrusive measurement of system performance. Director, GSI's Center for Human, AI, and Robot Teaming (CHART)</t>
-  </si>
-  <si>
-    <t>Human-Machine Teaming, Human System Measurement</t>
   </si>
   <si>
     <t>CERTT Lab &amp; CHART Labs</t>
@@ -532,7 +529,7 @@
     <t>Study fundamental physics behind interactions of biological systems with their surrounding solid, granular, and fluidic environments to develop bio-inspired micro/macro robotic systems.</t>
   </si>
   <si>
-    <t>Design,Bio-robotics,Dynamics,Mechatronics, Soft Robotics, Medical Robotics</t>
+    <t>Design,Bio-robotics,Dynamics,Mechatronics,Soft-Robotics,Medical</t>
   </si>
   <si>
     <t>BIRTH Lab</t>
@@ -679,7 +676,7 @@
     <t>Develop wearable robotic systems that include prosthetics, orthoses, and exoskeletons.  The systems are used in applications for industry, healthcare, and the military.</t>
   </si>
   <si>
-    <t>Controls,Design,Bio-robotics,Mechatronics</t>
+    <t>Controls,Design,Bio-robotics,Mechatronics,Human-Robot</t>
   </si>
   <si>
     <t>Human Machine Integration Laboratory</t>
@@ -769,7 +766,7 @@
     <t>Research on dynamic systems and control, wearable robots, soft robots, unmanned aerial vehicles, and human-robot collaboration</t>
   </si>
   <si>
-    <t>Controls,AI-and-learning,Mechatronics, Human-Robot</t>
+    <t>Controls,AI-and-learning,Mechatronics,Human-Robot</t>
   </si>
   <si>
     <t>Robotics and Intelligent Systems Laboratory</t>
@@ -824,6 +821,9 @@
   </si>
   <si>
     <t>Lifelong learner</t>
+  </si>
+  <si>
+    <t>Controls,Design,Bio-robotics,Mechatronics</t>
   </si>
   <si>
     <t>We work in dynamics and control of robots and physiological sensing</t>
@@ -901,7 +901,7 @@
     <t>Research at the intersection of control theory, formal methods, and reinforcement learning, with applications in robotics, smart buildings, power systems, etc.</t>
   </si>
   <si>
-    <t>Controls, AI-and-learning, Formal methods</t>
+    <t>Controls,AI-and-learning,</t>
   </si>
   <si>
     <t>Zhe Xu Lab</t>
@@ -931,7 +931,7 @@
     <t>Design of haptic sensing and feedback methods for physical interactions between humans and robots with a focus on user experience, social robotics, and autism therapy.</t>
   </si>
   <si>
-    <t>Human-Robot, Design, AI-and-learning</t>
+    <t>Human-Robot,Design,AI-and-learning</t>
   </si>
   <si>
     <t>Touch Experience and Action Learning (TEAL)</t>
@@ -996,9 +996,6 @@
     <t xml:space="preserve">Research at the intersection of robotics, human-robot interaction and natural language grounding. The goal of this research is to develop methods allowing humans to teach robots using natural language and interactions with novice humans users.  </t>
   </si>
   <si>
-    <t>Robot learning, human-robot interaction, natural language grounding</t>
-  </si>
-  <si>
     <t>Robotics for People (R4P) Lab</t>
   </si>
   <si>
@@ -1027,9 +1024,6 @@
   </si>
   <si>
     <t>Research on artificial intelligence, autonomous robots, multi-robot systems, human-robot teaming, and robot learning</t>
-  </si>
-  <si>
-    <t>AI-and-learning, Vision, Neural, Human-Robot</t>
   </si>
   <si>
     <t>People and Robots Lab (PeRL)</t>
@@ -1803,7 +1797,8 @@
     <col customWidth="1" min="6" max="6" width="38.29"/>
     <col customWidth="1" min="7" max="7" width="16.86"/>
     <col customWidth="1" min="8" max="8" width="75.0"/>
-    <col customWidth="1" min="9" max="11" width="40.71"/>
+    <col customWidth="1" min="9" max="9" width="60.43"/>
+    <col customWidth="1" min="10" max="11" width="40.71"/>
     <col customWidth="1" min="12" max="12" width="80.57"/>
     <col customWidth="1" min="13" max="13" width="33.57"/>
     <col customWidth="1" min="14" max="14" width="75.14"/>
@@ -1900,7 +1895,7 @@
       <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -2289,23 +2284,23 @@
       <c r="H8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="N8" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -2330,45 +2325,45 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" ref="C9:C27" si="2">A9&amp;" "&amp;B9</f>
         <v>Pauline Davies</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2393,10 +2388,10 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2406,7 +2401,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>30</v>
@@ -2415,25 +2410,25 @@
         <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2458,10 +2453,10 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2471,7 +2466,7 @@
         <v>85</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>30</v>
@@ -2480,23 +2475,23 @@
         <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2521,10 +2516,10 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2534,34 +2529,34 @@
         <v>85</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2586,10 +2581,10 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2599,7 +2594,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>41</v>
@@ -2608,25 +2603,25 @@
         <v>41</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2651,20 +2646,20 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Thurmon Lockhart</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>52</v>
@@ -2673,25 +2668,25 @@
         <v>52</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2716,10 +2711,10 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2729,7 +2724,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>41</v>
@@ -2738,25 +2733,25 @@
         <v>41</v>
       </c>
       <c r="H15" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2781,10 +2776,10 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2794,7 +2789,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>30</v>
@@ -2803,25 +2798,25 @@
         <v>30</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2846,10 +2841,10 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2859,7 +2854,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>41</v>
@@ -2868,25 +2863,25 @@
         <v>41</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2911,10 +2906,10 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2924,7 +2919,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>30</v>
@@ -2933,23 +2928,23 @@
         <v>30</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2974,10 +2969,10 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2987,7 +2982,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>30</v>
@@ -2996,25 +2991,25 @@
         <v>30</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3039,10 +3034,10 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3052,7 +3047,7 @@
         <v>85</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>18</v>
@@ -3061,25 +3056,25 @@
         <v>18</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3104,10 +3099,10 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3117,7 +3112,7 @@
         <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>30</v>
@@ -3126,25 +3121,25 @@
         <v>30</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3169,10 +3164,10 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="C22" s="10" t="str">
         <f t="shared" si="2"/>
@@ -3182,7 +3177,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>41</v>
@@ -3191,25 +3186,25 @@
         <v>41</v>
       </c>
       <c r="H22" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="K22" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="L22" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="M22" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="N22" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -3234,10 +3229,10 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3247,7 +3242,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>18</v>
@@ -3256,25 +3251,25 @@
         <v>18</v>
       </c>
       <c r="H23" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="L23" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="M23" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -3299,10 +3294,10 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3312,7 +3307,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>30</v>
@@ -3321,25 +3316,25 @@
         <v>30</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -3364,10 +3359,10 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3377,7 +3372,7 @@
         <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>18</v>
@@ -3386,16 +3381,16 @@
         <v>18</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="L25" s="13" t="s">
         <v>260</v>
@@ -3576,7 +3571,7 @@
       <c r="H28" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="4" t="s">
         <v>285</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -3703,19 +3698,19 @@
         <v>305</v>
       </c>
       <c r="I30" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="K30" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="L30" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="M30" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -3741,46 +3736,46 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="C31" s="22" t="s">
         <v>312</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>313</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="F31" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="G31" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="H31" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="G31" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="H31" s="24" t="s">
+      <c r="I31" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J31" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="K31" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="L31" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="M31" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="L31" s="25" t="s">
+      <c r="N31" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="M31" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="O31" s="23"/>
       <c r="P31" s="23"/>
@@ -38779,51 +38774,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>329</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="D2" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="E2" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>336</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
@@ -38831,139 +38826,139 @@
     </row>
     <row r="3">
       <c r="A3" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="D3" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="F3" s="31" t="s">
         <v>339</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>341</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
       <c r="I3" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>345</v>
-      </c>
       <c r="D4" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="27" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="27" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="27" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -38971,90 +38966,90 @@
     </row>
     <row r="9">
       <c r="A9" s="27" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="27" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="27" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="27" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>364</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>366</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="28" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>369</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>371</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>15</v>
@@ -39062,48 +39057,48 @@
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="27" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
@@ -39111,20 +39106,20 @@
     </row>
     <row r="15">
       <c r="A15" s="27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -39132,17 +39127,17 @@
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>15</v>
@@ -39150,22 +39145,22 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="34" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F17" s="27" t="s">
         <v>72</v>
@@ -39173,94 +39168,94 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="27" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="27" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="28" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="27" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
@@ -39268,65 +39263,65 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>401</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>403</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="28" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="27" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>39</v>
@@ -39334,50 +39329,50 @@
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="35" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="27" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="27" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="28" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F26" s="36" t="s">
         <v>291</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
